--- a/DateBase/orders/Nha Thu_2025-11-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-20.xlsx
@@ -523,6 +523,9 @@
       <c r="C11" t="str">
         <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F11" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -584,7 +587,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011157810177612.50</v>
+        <v>011157810177612.55</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,9 +527,91 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -587,7 +669,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011157810177612.55</v>
+        <v>011157810177612.55572.5151014131050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,10 +608,96 @@
       <c r="A21" t="str">
         <v>4</v>
       </c>
+      <c r="C21" t="str">
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
+      </c>
+      <c r="F21" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>5</v>
+      </c>
+      <c r="C25" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>80_冰清玉洁_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -669,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011157810177612.55572.5151014131050</v>
+        <v>011157810177612.55572.51510141310530402010301020155100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -694,10 +694,94 @@
       <c r="A31" t="str">
         <v>6</v>
       </c>
+      <c r="C31" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>705_中华桔梗紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>819_中华桔梗白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -755,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011157810177612.55572.51510141310530402010301020155100</v>
+        <v>011157810177612.55572.51510141310530402010301020155101030105115101015100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-20.xlsx
@@ -778,6 +778,9 @@
       <c r="C41" t="str">
         <v>84_堪培拉_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -839,7 +842,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011157810177612.55572.51510141310530402010301020155101030105115101015100</v>
+        <v>011157810177612.55572.515101413105304020103010201551010301051151010151020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-20.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -782,9 +782,84 @@
         <v>20</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>7</v>
+      </c>
+      <c r="C42" t="str">
+        <v>797_维也纳大菊_undefined_undefined_5stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>790_铁线莲粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>551_铁线莲_Glematis_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>395_豌豆花 混色_sweetpea mix colors_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>679_锦鲤白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>682_锦鲤粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>681_锦鲤橙_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>683_锦鲤红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L50"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -842,7 +917,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>011157810177612.55572.515101413105304020103010201551010301051151010151020</v>
+        <v>011157810177612.55572.51510141310530402010301020155101030105115101015102015333955335</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-11-20.xlsx
+++ b/DateBase/orders/Nha Thu_2025-11-20.xlsx
@@ -919,6 +919,9 @@
       <c r="G2" t="str">
         <v>011157810177612.55572.51510141310530402010301020155101030105115101015102015333955335</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
